--- a/tradept/Excel/Localization/Main/english/D地图列表_Maps_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D地图列表_Maps_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CF010-B5DC-4E47-AFA4-B3CF44CFF45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99694B1-866B-4947-BFAA-DC89D6CA2F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="248">
   <si>
     <t>地图ID_MapID</t>
   </si>
@@ -547,16 +547,19 @@
     <t>沙盒红石城正式版</t>
   </si>
   <si>
-    <t>Penhascos Umbra</t>
+    <t>Penhascos de Umbra</t>
   </si>
   <si>
     <t>Acampamento Sem Nome</t>
   </si>
   <si>
-    <t>Vale da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Vale Gêmeo da Lua</t>
+    <t>Vale Pedrarrubra</t>
+  </si>
+  <si>
+    <t>Rocha Chorosa</t>
+  </si>
+  <si>
+    <t>Vale de Duas Luas</t>
   </si>
   <si>
     <t>Montanhas Zagros</t>
@@ -568,40 +571,34 @@
     <t>Cavernas</t>
   </si>
   <si>
-    <t>Livro da Ilusão de Fogo</t>
+    <t>Livro do Fogo Ilusório</t>
   </si>
   <si>
     <t>Memórias do Guerreiro</t>
   </si>
   <si>
-    <t>Minas Ember</t>
+    <t>Minas de Brasa</t>
   </si>
   <si>
     <t>Fortaleza de Rabia</t>
   </si>
   <si>
-    <t>Catacumba do Velho Rei</t>
-  </si>
-  <si>
-    <t>Floresta Canis</t>
+    <t>Catacumba do Antigo Rei</t>
+  </si>
+  <si>
+    <t>Floresta de Canis</t>
   </si>
   <si>
     <t>Oásis Misterioso</t>
   </si>
   <si>
-    <t>Rocha Chorosa</t>
-  </si>
-  <si>
-    <t>Caverna do Pináculo da Espada</t>
-  </si>
-  <si>
-    <t>Cidade Sem Fim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cidade Sem Fim </t>
-  </si>
-  <si>
-    <t>Primeiro Teste</t>
+    <t>Caverna da Espada Erguida</t>
+  </si>
+  <si>
+    <t>Cidade Infinita</t>
+  </si>
+  <si>
+    <t>Primeira Prova</t>
   </si>
   <si>
     <t>Montanhas Karakorum</t>
@@ -610,40 +607,40 @@
     <t>Vale do Rio</t>
   </si>
   <si>
-    <t>Cavernas Zagros</t>
-  </si>
-  <si>
-    <t>Caverna dos Bandidos em Rocha Chorosa</t>
-  </si>
-  <si>
-    <t>Interior da Caverna do Vale do Gelo</t>
+    <t>Cavernas de Zagros</t>
+  </si>
+  <si>
+    <t>Caverna dos Bandidos da Rocha Chorosa</t>
+  </si>
+  <si>
+    <t>Interior da Caverna do Vale Gélido</t>
   </si>
   <si>
     <t>Caverna do Ifrit</t>
   </si>
   <si>
-    <t>Mina Abandonada em Rocha Chorosa</t>
+    <t>Mina Abandonada da Rocha Chorosa</t>
   </si>
   <si>
     <t>Memórias</t>
   </si>
   <si>
-    <t>Cavernas Sombrias</t>
+    <t>Cavernas Sinistras</t>
   </si>
   <si>
     <t>Vale do Caçador</t>
   </si>
   <si>
-    <t>Masmorra Shujae</t>
-  </si>
-  <si>
-    <t>Arredores do Vale da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Covil dos Ifrit</t>
-  </si>
-  <si>
-    <t>Ilusão</t>
+    <t>Masmorra de Shujae</t>
+  </si>
+  <si>
+    <t>Arredores do Vale Pedrarrubra</t>
+  </si>
+  <si>
+    <t>Covil do Ifrit</t>
+  </si>
+  <si>
+    <t>Miragem</t>
   </si>
   <si>
     <t>Túnel Subterrâneo</t>
@@ -661,22 +658,22 @@
     <t>Caverna das Maldições</t>
   </si>
   <si>
-    <t>Vale Sirocco</t>
-  </si>
-  <si>
-    <t>Palácio Arbor</t>
+    <t>Vale do Siroco</t>
+  </si>
+  <si>
+    <t>Palácio das Árvores</t>
   </si>
   <si>
     <t>Vale Verdejante</t>
   </si>
   <si>
-    <t>Cavernas de Ossos do Leviatã</t>
-  </si>
-  <si>
-    <t>Mina Abandonada da Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Formação do Gigante Zagros</t>
+    <t>Cavernas do Osso de Leviatã</t>
+  </si>
+  <si>
+    <t>Mina Abandonada de Pedrarrubra</t>
+  </si>
+  <si>
+    <t>Formação Gigante de Zagros</t>
   </si>
   <si>
     <t>Vazio de Lava Pāhoehoe</t>
@@ -685,61 +682,58 @@
     <t>Esconderijo Secreto</t>
   </si>
   <si>
-    <t>Cavernas Agadir</t>
-  </si>
-  <si>
-    <t>Cavernas de Neve</t>
-  </si>
-  <si>
-    <t>Floresta da Ilusão</t>
+    <t>Cavernas de Agadir</t>
+  </si>
+  <si>
+    <t>Cavernas Geladas</t>
+  </si>
+  <si>
+    <t>Floresta Ilusória</t>
   </si>
   <si>
     <t>Vale Sem Nome</t>
   </si>
   <si>
-    <t>Covil do Ifrit</t>
-  </si>
-  <si>
-    <t>Covil do Ifrit da Pedra Vermelha</t>
+    <t>Covil do Ifrit do Vale Pedrarrubra</t>
   </si>
   <si>
     <t>Visão da Deusa</t>
   </si>
   <si>
-    <t xml:space="preserve">Memórias de Jahim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memórias de Yaya </t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante em Rocha Chorosa</t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante em Zagros</t>
-  </si>
-  <si>
-    <t>Entrada do Vale Verdejante no Pântano</t>
+    <t>Memórias de Jahim</t>
+  </si>
+  <si>
+    <t>Memórias de Yaya</t>
+  </si>
+  <si>
+    <t>Entrada Rocha Chorosa Vale Verdejante</t>
+  </si>
+  <si>
+    <t>Entrada Zagros Vale Verdejante</t>
+  </si>
+  <si>
+    <t>Entrada Pântano Vale Verdejante</t>
   </si>
   <si>
     <t>Rota Comercial do Deserto</t>
   </si>
   <si>
-    <t>Cavernas Epoch</t>
+    <t>Cavernas da Época</t>
   </si>
   <si>
     <t>Passagem</t>
   </si>
   <si>
-    <t>Acampamento dos Ifrit</t>
+    <t>Acampamento Ifrit</t>
   </si>
   <si>
     <t>Ruínas Desconhecidas</t>
   </si>
   <si>
-    <t>Acampamento de Fogo</t>
-  </si>
-  <si>
-    <t>Montanhas Ilyas</t>
+    <t>Quartéis de Fogo</t>
+  </si>
+  <si>
+    <t>Montanhas de Ilyas</t>
   </si>
   <si>
     <t>No Caminho</t>
@@ -763,7 +757,7 @@
     <t>Livro do Fogo</t>
   </si>
   <si>
-    <t>Demônio Interno</t>
+    <t>Demônio Interior</t>
   </si>
   <si>
     <t>Memórias de Mathali</t>
@@ -897,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1284,13 +1275,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
@@ -1356,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5">
@@ -1367,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1378,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5">
@@ -1389,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="22.5">
@@ -1400,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1411,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.5">
@@ -1422,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5">
@@ -1433,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33.75">
@@ -1455,7 +1446,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.5">
@@ -1466,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22.5">
@@ -1477,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5">
@@ -1488,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5">
@@ -1499,7 +1490,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5">
@@ -1510,7 +1501,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5">
@@ -1554,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1565,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1576,7 +1567,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1587,7 +1578,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="22.5">
@@ -1609,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1620,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="22.5">
@@ -1631,7 +1622,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5">
@@ -1642,7 +1633,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="22.5">
@@ -1653,7 +1644,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="22.5">
@@ -1664,7 +1655,7 @@
         <v>58</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="22.5">
@@ -1675,7 +1666,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="22.5">
@@ -1686,7 +1677,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5">
@@ -1697,7 +1688,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1708,7 +1699,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="22.5">
@@ -1719,7 +1710,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="22.5">
@@ -1730,7 +1721,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="22.5">
@@ -1741,7 +1732,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1763,7 +1754,7 @@
         <v>75</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="22.5">
@@ -1774,7 +1765,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1785,7 +1776,7 @@
         <v>78</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="22.5">
@@ -1796,7 +1787,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="22.5">
@@ -1807,7 +1798,7 @@
         <v>82</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1829,7 +1820,7 @@
         <v>84</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1840,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1851,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1862,7 +1853,7 @@
         <v>87</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="22.5">
@@ -1873,7 +1864,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="22.5">
@@ -1884,7 +1875,7 @@
         <v>89</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.5">
@@ -1895,7 +1886,7 @@
         <v>90</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5">
@@ -1906,7 +1897,7 @@
         <v>91</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1917,7 +1908,7 @@
         <v>92</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1928,7 +1919,7 @@
         <v>93</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1939,7 +1930,7 @@
         <v>95</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1950,7 +1941,7 @@
         <v>96</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="22.5">
@@ -1961,7 +1952,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="22.5">
@@ -1972,7 +1963,7 @@
         <v>99</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="22.5">
@@ -1983,7 +1974,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22.5">
@@ -1994,7 +1985,7 @@
         <v>78</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="22.5">
@@ -2005,7 +1996,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="22.5">
@@ -2016,7 +2007,7 @@
         <v>104</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="22.5">
@@ -2027,7 +2018,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="22.5">
@@ -2049,7 +2040,7 @@
         <v>108</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="22.5">
@@ -2060,7 +2051,7 @@
         <v>110</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="22.5">
@@ -2071,7 +2062,7 @@
         <v>110</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="22.5">
@@ -2082,7 +2073,7 @@
         <v>113</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="22.5">
@@ -2093,7 +2084,7 @@
         <v>113</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="22.5">
@@ -2104,7 +2095,7 @@
         <v>113</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="22.5">
@@ -2115,7 +2106,7 @@
         <v>113</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="22.5">
@@ -2126,7 +2117,7 @@
         <v>118</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="22.5">
@@ -2137,7 +2128,7 @@
         <v>120</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="22.5">
@@ -2148,7 +2139,7 @@
         <v>122</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="22.5">
@@ -2159,7 +2150,7 @@
         <v>124</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="22.5">
@@ -2170,7 +2161,7 @@
         <v>126</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="22.5">
@@ -2181,7 +2172,7 @@
         <v>128</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="22.5">
@@ -2192,7 +2183,7 @@
         <v>130</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="22.5">
@@ -2203,7 +2194,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="22.5">
@@ -2214,7 +2205,7 @@
         <v>70</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="33.75">
@@ -2225,7 +2216,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="22.5">
@@ -2236,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5">
@@ -2247,7 +2238,7 @@
         <v>108</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="22.5">
@@ -2258,7 +2249,7 @@
         <v>137</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="22.5">
@@ -2269,7 +2260,7 @@
         <v>139</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="22.5">
@@ -2280,7 +2271,7 @@
         <v>141</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="22.5">
@@ -2291,7 +2282,7 @@
         <v>64</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="22.5">
@@ -2302,7 +2293,7 @@
         <v>144</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="22.5">
@@ -2313,7 +2304,7 @@
         <v>146</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="22.5">
@@ -2324,7 +2315,7 @@
         <v>148</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="22.5">
@@ -2335,7 +2326,7 @@
         <v>141</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="22.5">
@@ -2346,7 +2337,7 @@
         <v>141</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="22.5">
@@ -2357,7 +2348,7 @@
         <v>141</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="22.5">
@@ -2368,7 +2359,7 @@
         <v>153</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="22.5">
@@ -2379,7 +2370,7 @@
         <v>155</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="22.5">
@@ -2390,7 +2381,7 @@
         <v>157</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="22.5">
@@ -2445,7 +2436,7 @@
         <v>130</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2456,7 +2447,7 @@
         <v>166</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="22.5">
@@ -2467,7 +2458,7 @@
         <v>168</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="22.5">
@@ -2478,7 +2469,7 @@
         <v>168</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="22.5">
@@ -2489,7 +2480,7 @@
         <v>171</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="22.5">
@@ -2500,7 +2491,7 @@
         <v>171</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2511,7 +2502,7 @@
         <v>173</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="22.5">
@@ -2521,7 +2512,7 @@
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="9" t="s">
         <v>177</v>
       </c>
     </row>
